--- a/data/preprocessing/departure_patterns/21_days.xlsx
+++ b/data/preprocessing/departure_patterns/21_days.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\src\tcc-GNL-amazon\data\routes\pattern\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\src\tcc-GNL-amazon\data\preprocessing\departure_patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666C3F30-60B0-4D12-B2C1-D7F82CAB1F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2935FAD8-1D40-4012-9EF3-CBD252AFC019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FC129893-5089-43D2-9B4A-D458CA2F4A93}"/>
   </bookViews>
@@ -36,9 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>freq</t>
+  </si>
+  <si>
+    <t>num</t>
   </si>
 </sst>
 </file>
@@ -497,94 +500,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9B64BD-8D7C-457D-A147-3C4B2B03EF4D}">
-  <dimension ref="A1:V71"/>
+  <dimension ref="A1:W71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="10"/>
+    <col min="2" max="2" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>0</v>
       </c>
       <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
         <v>2</v>
       </c>
-      <c r="D1">
+      <c r="E1">
         <v>3</v>
       </c>
-      <c r="E1">
+      <c r="F1">
         <v>4</v>
       </c>
-      <c r="F1">
+      <c r="G1">
         <v>5</v>
       </c>
-      <c r="G1">
+      <c r="H1">
         <v>6</v>
       </c>
-      <c r="H1">
+      <c r="I1">
         <v>7</v>
       </c>
-      <c r="I1">
+      <c r="J1">
         <v>8</v>
       </c>
-      <c r="J1">
+      <c r="K1">
         <v>9</v>
       </c>
-      <c r="K1">
+      <c r="L1">
         <v>10</v>
       </c>
-      <c r="L1">
+      <c r="M1">
         <v>11</v>
       </c>
-      <c r="M1">
+      <c r="N1">
         <v>12</v>
       </c>
-      <c r="N1">
+      <c r="O1">
         <v>13</v>
       </c>
-      <c r="O1">
+      <c r="P1">
         <v>14</v>
       </c>
-      <c r="P1">
+      <c r="Q1">
         <v>15</v>
       </c>
-      <c r="Q1">
+      <c r="R1">
         <v>16</v>
       </c>
-      <c r="R1">
+      <c r="S1">
         <v>17</v>
       </c>
-      <c r="S1">
+      <c r="T1">
         <v>18</v>
       </c>
-      <c r="T1">
+      <c r="U1">
         <v>19</v>
       </c>
-      <c r="U1">
+      <c r="V1">
         <v>20</v>
       </c>
-      <c r="V1">
+      <c r="W1">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0</v>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
@@ -640,22 +646,25 @@
       <c r="U2" s="4">
         <v>0</v>
       </c>
-      <c r="V2" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="13">
-        <v>0</v>
+      <c r="V2" s="4">
+        <v>0</v>
+      </c>
+      <c r="W2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
       </c>
       <c r="E3" s="13">
         <v>0</v>
@@ -708,25 +717,28 @@
       <c r="U3" s="13">
         <v>0</v>
       </c>
-      <c r="V3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>1</v>
-      </c>
-      <c r="B4" s="6">
-        <v>0</v>
-      </c>
-      <c r="C4" s="13">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="13">
-        <v>0</v>
+      <c r="V3" s="13">
+        <v>0</v>
+      </c>
+      <c r="W3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
       </c>
       <c r="F4" s="13">
         <v>0</v>
@@ -776,28 +788,31 @@
       <c r="U4" s="13">
         <v>0</v>
       </c>
-      <c r="V4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6">
-        <v>0</v>
-      </c>
-      <c r="C5" s="13">
+      <c r="V4" s="13">
+        <v>0</v>
+      </c>
+      <c r="W4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
         <v>0</v>
       </c>
       <c r="D5" s="13">
         <v>0</v>
       </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="13">
-        <v>0</v>
+      <c r="E5" s="13">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
       </c>
       <c r="G5" s="13">
         <v>0</v>
@@ -844,18 +859,21 @@
       <c r="U5" s="13">
         <v>0</v>
       </c>
-      <c r="V5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
-        <v>1</v>
-      </c>
-      <c r="B6" s="6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="13">
+      <c r="V5" s="13">
+        <v>0</v>
+      </c>
+      <c r="W5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
         <v>0</v>
       </c>
       <c r="D6" s="13">
@@ -864,11 +882,11 @@
       <c r="E6" s="13">
         <v>0</v>
       </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="13">
-        <v>0</v>
+      <c r="F6" s="13">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
       </c>
       <c r="H6" s="13">
         <v>0</v>
@@ -912,18 +930,21 @@
       <c r="U6" s="13">
         <v>0</v>
       </c>
-      <c r="V6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
-        <v>1</v>
-      </c>
-      <c r="B7" s="6">
-        <v>0</v>
-      </c>
-      <c r="C7" s="13">
+      <c r="V6" s="13">
+        <v>0</v>
+      </c>
+      <c r="W6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6">
         <v>0</v>
       </c>
       <c r="D7" s="13">
@@ -935,11 +956,11 @@
       <c r="F7" s="13">
         <v>0</v>
       </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="13">
-        <v>0</v>
+      <c r="G7" s="13">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
       </c>
       <c r="I7" s="13">
         <v>0</v>
@@ -980,18 +1001,21 @@
       <c r="U7" s="13">
         <v>0</v>
       </c>
-      <c r="V7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
-        <v>1</v>
-      </c>
-      <c r="B8" s="6">
-        <v>0</v>
-      </c>
-      <c r="C8" s="13">
+      <c r="V7" s="13">
+        <v>0</v>
+      </c>
+      <c r="W7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6">
         <v>0</v>
       </c>
       <c r="D8" s="13">
@@ -1006,11 +1030,11 @@
       <c r="G8" s="13">
         <v>0</v>
       </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="I8" s="13">
-        <v>0</v>
+      <c r="H8" s="13">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
       </c>
       <c r="J8" s="13">
         <v>0</v>
@@ -1048,18 +1072,21 @@
       <c r="U8" s="13">
         <v>0</v>
       </c>
-      <c r="V8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
-        <v>1</v>
-      </c>
-      <c r="B9" s="6">
-        <v>0</v>
-      </c>
-      <c r="C9" s="13">
+      <c r="V8" s="13">
+        <v>0</v>
+      </c>
+      <c r="W8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6">
         <v>0</v>
       </c>
       <c r="D9" s="13">
@@ -1077,11 +1104,11 @@
       <c r="H9" s="13">
         <v>0</v>
       </c>
-      <c r="I9" s="1">
-        <v>1</v>
-      </c>
-      <c r="J9" s="13">
-        <v>0</v>
+      <c r="I9" s="13">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
       </c>
       <c r="K9" s="13">
         <v>0</v>
@@ -1116,18 +1143,21 @@
       <c r="U9" s="13">
         <v>0</v>
       </c>
-      <c r="V9" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
-        <v>1</v>
-      </c>
-      <c r="B10" s="6">
-        <v>0</v>
-      </c>
-      <c r="C10" s="13">
+      <c r="V9" s="13">
+        <v>0</v>
+      </c>
+      <c r="W9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="12">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6">
         <v>0</v>
       </c>
       <c r="D10" s="13">
@@ -1148,11 +1178,11 @@
       <c r="I10" s="13">
         <v>0</v>
       </c>
-      <c r="J10" s="1">
-        <v>1</v>
-      </c>
-      <c r="K10" s="13">
-        <v>0</v>
+      <c r="J10" s="13">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
       </c>
       <c r="L10" s="13">
         <v>0</v>
@@ -1184,18 +1214,21 @@
       <c r="U10" s="13">
         <v>0</v>
       </c>
-      <c r="V10" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
-        <v>1</v>
-      </c>
-      <c r="B11" s="6">
-        <v>0</v>
-      </c>
-      <c r="C11" s="13">
+      <c r="V10" s="13">
+        <v>0</v>
+      </c>
+      <c r="W10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="12">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6">
         <v>0</v>
       </c>
       <c r="D11" s="13">
@@ -1219,11 +1252,11 @@
       <c r="J11" s="13">
         <v>0</v>
       </c>
-      <c r="K11" s="1">
-        <v>1</v>
-      </c>
-      <c r="L11" s="13">
-        <v>0</v>
+      <c r="K11" s="13">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
       </c>
       <c r="M11" s="13">
         <v>0</v>
@@ -1252,18 +1285,21 @@
       <c r="U11" s="13">
         <v>0</v>
       </c>
-      <c r="V11" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
-        <v>1</v>
-      </c>
-      <c r="B12" s="6">
-        <v>0</v>
-      </c>
-      <c r="C12" s="13">
+      <c r="V11" s="13">
+        <v>0</v>
+      </c>
+      <c r="W11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6">
         <v>0</v>
       </c>
       <c r="D12" s="13">
@@ -1290,11 +1326,11 @@
       <c r="K12" s="13">
         <v>0</v>
       </c>
-      <c r="L12" s="1">
-        <v>1</v>
-      </c>
-      <c r="M12" s="13">
-        <v>0</v>
+      <c r="L12" s="13">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
       </c>
       <c r="N12" s="13">
         <v>0</v>
@@ -1320,18 +1356,21 @@
       <c r="U12" s="13">
         <v>0</v>
       </c>
-      <c r="V12" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
-        <v>1</v>
-      </c>
-      <c r="B13" s="6">
-        <v>0</v>
-      </c>
-      <c r="C13" s="13">
+      <c r="V12" s="13">
+        <v>0</v>
+      </c>
+      <c r="W12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="12">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6">
         <v>0</v>
       </c>
       <c r="D13" s="13">
@@ -1361,11 +1400,11 @@
       <c r="L13" s="13">
         <v>0</v>
       </c>
-      <c r="M13" s="1">
-        <v>1</v>
-      </c>
-      <c r="N13" s="13">
-        <v>0</v>
+      <c r="M13" s="13">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1</v>
       </c>
       <c r="O13" s="13">
         <v>0</v>
@@ -1388,18 +1427,21 @@
       <c r="U13" s="13">
         <v>0</v>
       </c>
-      <c r="V13" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
-        <v>1</v>
-      </c>
-      <c r="B14" s="6">
-        <v>0</v>
-      </c>
-      <c r="C14" s="13">
+      <c r="V13" s="13">
+        <v>0</v>
+      </c>
+      <c r="W13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="12">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6">
         <v>0</v>
       </c>
       <c r="D14" s="13">
@@ -1432,11 +1474,11 @@
       <c r="M14" s="13">
         <v>0</v>
       </c>
-      <c r="N14" s="1">
-        <v>1</v>
-      </c>
-      <c r="O14" s="13">
-        <v>0</v>
+      <c r="N14" s="13">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>1</v>
       </c>
       <c r="P14" s="13">
         <v>0</v>
@@ -1456,18 +1498,21 @@
       <c r="U14" s="13">
         <v>0</v>
       </c>
-      <c r="V14" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
-        <v>1</v>
-      </c>
-      <c r="B15" s="6">
-        <v>0</v>
-      </c>
-      <c r="C15" s="13">
+      <c r="V14" s="13">
+        <v>0</v>
+      </c>
+      <c r="W14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="12">
+        <v>1</v>
+      </c>
+      <c r="C15" s="6">
         <v>0</v>
       </c>
       <c r="D15" s="13">
@@ -1503,11 +1548,11 @@
       <c r="N15" s="13">
         <v>0</v>
       </c>
-      <c r="O15" s="1">
-        <v>1</v>
-      </c>
-      <c r="P15" s="13">
-        <v>0</v>
+      <c r="O15" s="13">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <v>1</v>
       </c>
       <c r="Q15" s="13">
         <v>0</v>
@@ -1524,18 +1569,21 @@
       <c r="U15" s="13">
         <v>0</v>
       </c>
-      <c r="V15" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
-        <v>1</v>
-      </c>
-      <c r="B16" s="6">
-        <v>0</v>
-      </c>
-      <c r="C16" s="13">
+      <c r="V15" s="13">
+        <v>0</v>
+      </c>
+      <c r="W15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="12">
+        <v>1</v>
+      </c>
+      <c r="C16" s="6">
         <v>0</v>
       </c>
       <c r="D16" s="13">
@@ -1574,11 +1622,11 @@
       <c r="O16" s="13">
         <v>0</v>
       </c>
-      <c r="P16" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="13">
-        <v>0</v>
+      <c r="P16" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>1</v>
       </c>
       <c r="R16" s="13">
         <v>0</v>
@@ -1592,18 +1640,21 @@
       <c r="U16" s="13">
         <v>0</v>
       </c>
-      <c r="V16" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
-        <v>1</v>
-      </c>
-      <c r="B17" s="6">
-        <v>0</v>
-      </c>
-      <c r="C17" s="13">
+      <c r="V16" s="13">
+        <v>0</v>
+      </c>
+      <c r="W16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="12">
+        <v>1</v>
+      </c>
+      <c r="C17" s="6">
         <v>0</v>
       </c>
       <c r="D17" s="13">
@@ -1645,11 +1696,11 @@
       <c r="P17" s="13">
         <v>0</v>
       </c>
-      <c r="Q17" s="1">
-        <v>1</v>
-      </c>
-      <c r="R17" s="13">
-        <v>0</v>
+      <c r="Q17" s="13">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1">
+        <v>1</v>
       </c>
       <c r="S17" s="13">
         <v>0</v>
@@ -1660,18 +1711,21 @@
       <c r="U17" s="13">
         <v>0</v>
       </c>
-      <c r="V17" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
-        <v>1</v>
-      </c>
-      <c r="B18" s="6">
-        <v>0</v>
-      </c>
-      <c r="C18" s="13">
+      <c r="V17" s="13">
+        <v>0</v>
+      </c>
+      <c r="W17" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="12">
+        <v>1</v>
+      </c>
+      <c r="C18" s="6">
         <v>0</v>
       </c>
       <c r="D18" s="13">
@@ -1716,11 +1770,11 @@
       <c r="Q18" s="13">
         <v>0</v>
       </c>
-      <c r="R18" s="1">
-        <v>1</v>
-      </c>
-      <c r="S18" s="13">
-        <v>0</v>
+      <c r="R18" s="13">
+        <v>0</v>
+      </c>
+      <c r="S18" s="1">
+        <v>1</v>
       </c>
       <c r="T18" s="13">
         <v>0</v>
@@ -1728,18 +1782,21 @@
       <c r="U18" s="13">
         <v>0</v>
       </c>
-      <c r="V18" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
-        <v>1</v>
-      </c>
-      <c r="B19" s="6">
-        <v>0</v>
-      </c>
-      <c r="C19" s="13">
+      <c r="V18" s="13">
+        <v>0</v>
+      </c>
+      <c r="W18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="12">
+        <v>1</v>
+      </c>
+      <c r="C19" s="6">
         <v>0</v>
       </c>
       <c r="D19" s="13">
@@ -1787,27 +1844,30 @@
       <c r="R19" s="13">
         <v>0</v>
       </c>
-      <c r="S19" s="1">
-        <v>1</v>
-      </c>
-      <c r="T19" s="13">
-        <v>0</v>
+      <c r="S19" s="13">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1">
+        <v>1</v>
       </c>
       <c r="U19" s="13">
         <v>0</v>
       </c>
-      <c r="V19" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
-        <v>1</v>
-      </c>
-      <c r="B20" s="6">
-        <v>0</v>
-      </c>
-      <c r="C20" s="13">
+      <c r="V19" s="13">
+        <v>0</v>
+      </c>
+      <c r="W19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="12">
+        <v>1</v>
+      </c>
+      <c r="C20" s="6">
         <v>0</v>
       </c>
       <c r="D20" s="13">
@@ -1858,24 +1918,27 @@
       <c r="S20" s="13">
         <v>0</v>
       </c>
-      <c r="T20" s="1">
-        <v>1</v>
-      </c>
-      <c r="U20" s="13">
-        <v>0</v>
-      </c>
-      <c r="V20" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
-        <v>1</v>
-      </c>
-      <c r="B21" s="6">
-        <v>0</v>
-      </c>
-      <c r="C21" s="13">
+      <c r="T20" s="13">
+        <v>0</v>
+      </c>
+      <c r="U20" s="1">
+        <v>1</v>
+      </c>
+      <c r="V20" s="13">
+        <v>0</v>
+      </c>
+      <c r="W20" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="12">
+        <v>1</v>
+      </c>
+      <c r="C21" s="6">
         <v>0</v>
       </c>
       <c r="D21" s="13">
@@ -1929,21 +1992,24 @@
       <c r="T21" s="13">
         <v>0</v>
       </c>
-      <c r="U21" s="1">
-        <v>1</v>
-      </c>
-      <c r="V21" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
-        <v>1</v>
-      </c>
-      <c r="B22" s="6">
-        <v>0</v>
-      </c>
-      <c r="C22" s="13">
+      <c r="U21" s="13">
+        <v>0</v>
+      </c>
+      <c r="V21" s="1">
+        <v>1</v>
+      </c>
+      <c r="W21" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="12">
+        <v>1</v>
+      </c>
+      <c r="C22" s="6">
         <v>0</v>
       </c>
       <c r="D22" s="13">
@@ -2000,19 +2066,22 @@
       <c r="U22" s="13">
         <v>0</v>
       </c>
-      <c r="V22" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
+      <c r="V22" s="13">
+        <v>0</v>
+      </c>
+      <c r="W22" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="11">
         <v>2</v>
       </c>
-      <c r="B23" s="3">
-        <v>1</v>
-      </c>
-      <c r="C23" s="4">
-        <v>0</v>
+      <c r="C23" s="3">
+        <v>1</v>
       </c>
       <c r="D23" s="4">
         <v>0</v>
@@ -2039,10 +2108,10 @@
         <v>0</v>
       </c>
       <c r="L23" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="4">
         <v>0</v>
@@ -2068,19 +2137,22 @@
       <c r="U23" s="4">
         <v>0</v>
       </c>
-      <c r="V23" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
+      <c r="V23" s="4">
+        <v>0</v>
+      </c>
+      <c r="W23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="11">
         <v>2</v>
       </c>
-      <c r="B24" s="6">
-        <v>1</v>
-      </c>
-      <c r="C24" s="13">
-        <v>0</v>
+      <c r="C24" s="6">
+        <v>1</v>
       </c>
       <c r="D24" s="13">
         <v>0</v>
@@ -2109,11 +2181,11 @@
       <c r="L24" s="13">
         <v>0</v>
       </c>
-      <c r="M24" s="1">
-        <v>1</v>
-      </c>
-      <c r="N24" s="13">
-        <v>0</v>
+      <c r="M24" s="13">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>1</v>
       </c>
       <c r="O24" s="13">
         <v>0</v>
@@ -2136,22 +2208,25 @@
       <c r="U24" s="13">
         <v>0</v>
       </c>
-      <c r="V24" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
+      <c r="V24" s="13">
+        <v>0</v>
+      </c>
+      <c r="W24" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="11">
         <v>2</v>
       </c>
-      <c r="B25" s="6">
-        <v>0</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
-      <c r="D25" s="13">
-        <v>0</v>
+      <c r="C25" s="6">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
       </c>
       <c r="E25" s="13">
         <v>0</v>
@@ -2177,11 +2252,11 @@
       <c r="L25" s="13">
         <v>0</v>
       </c>
-      <c r="M25" s="1">
-        <v>1</v>
-      </c>
-      <c r="N25" s="13">
-        <v>0</v>
+      <c r="M25" s="13">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
+        <v>1</v>
       </c>
       <c r="O25" s="13">
         <v>0</v>
@@ -2204,22 +2279,25 @@
       <c r="U25" s="13">
         <v>0</v>
       </c>
-      <c r="V25" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
+      <c r="V25" s="13">
+        <v>0</v>
+      </c>
+      <c r="W25" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="11">
         <v>2</v>
       </c>
-      <c r="B26" s="6">
-        <v>0</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" s="13">
-        <v>0</v>
+      <c r="C26" s="6">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
       </c>
       <c r="E26" s="13">
         <v>0</v>
@@ -2248,11 +2326,11 @@
       <c r="M26" s="13">
         <v>0</v>
       </c>
-      <c r="N26" s="1">
-        <v>1</v>
-      </c>
-      <c r="O26" s="13">
-        <v>0</v>
+      <c r="N26" s="13">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
+        <v>1</v>
       </c>
       <c r="P26" s="13">
         <v>0</v>
@@ -2272,25 +2350,28 @@
       <c r="U26" s="13">
         <v>0</v>
       </c>
-      <c r="V26" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="11">
+      <c r="V26" s="13">
+        <v>0</v>
+      </c>
+      <c r="W26" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" s="11">
         <v>2</v>
       </c>
-      <c r="B27" s="6">
-        <v>0</v>
-      </c>
-      <c r="C27" s="13">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1">
-        <v>1</v>
-      </c>
-      <c r="E27" s="13">
-        <v>0</v>
+      <c r="C27" s="6">
+        <v>0</v>
+      </c>
+      <c r="D27" s="13">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
       </c>
       <c r="F27" s="13">
         <v>0</v>
@@ -2316,11 +2397,11 @@
       <c r="M27" s="13">
         <v>0</v>
       </c>
-      <c r="N27" s="1">
-        <v>1</v>
-      </c>
-      <c r="O27" s="13">
-        <v>0</v>
+      <c r="N27" s="13">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1">
+        <v>1</v>
       </c>
       <c r="P27" s="13">
         <v>0</v>
@@ -2340,25 +2421,28 @@
       <c r="U27" s="13">
         <v>0</v>
       </c>
-      <c r="V27" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="11">
+      <c r="V27" s="13">
+        <v>0</v>
+      </c>
+      <c r="W27" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" s="11">
         <v>2</v>
       </c>
-      <c r="B28" s="6">
-        <v>0</v>
-      </c>
-      <c r="C28" s="13">
-        <v>0</v>
-      </c>
-      <c r="D28" s="1">
-        <v>1</v>
-      </c>
-      <c r="E28" s="13">
-        <v>0</v>
+      <c r="C28" s="6">
+        <v>0</v>
+      </c>
+      <c r="D28" s="13">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
       </c>
       <c r="F28" s="13">
         <v>0</v>
@@ -2387,11 +2471,11 @@
       <c r="N28" s="13">
         <v>0</v>
       </c>
-      <c r="O28" s="1">
-        <v>1</v>
-      </c>
-      <c r="P28" s="13">
-        <v>0</v>
+      <c r="O28" s="13">
+        <v>0</v>
+      </c>
+      <c r="P28" s="1">
+        <v>1</v>
       </c>
       <c r="Q28" s="13">
         <v>0</v>
@@ -2408,28 +2492,31 @@
       <c r="U28" s="13">
         <v>0</v>
       </c>
-      <c r="V28" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="11">
+      <c r="V28" s="13">
+        <v>0</v>
+      </c>
+      <c r="W28" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" s="11">
         <v>2</v>
       </c>
-      <c r="B29" s="6">
-        <v>0</v>
-      </c>
-      <c r="C29" s="13">
+      <c r="C29" s="6">
         <v>0</v>
       </c>
       <c r="D29" s="13">
         <v>0</v>
       </c>
-      <c r="E29" s="1">
-        <v>1</v>
-      </c>
-      <c r="F29" s="13">
-        <v>0</v>
+      <c r="E29" s="13">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
       </c>
       <c r="G29" s="13">
         <v>0</v>
@@ -2455,11 +2542,11 @@
       <c r="N29" s="13">
         <v>0</v>
       </c>
-      <c r="O29" s="1">
-        <v>1</v>
-      </c>
-      <c r="P29" s="13">
-        <v>0</v>
+      <c r="O29" s="13">
+        <v>0</v>
+      </c>
+      <c r="P29" s="1">
+        <v>1</v>
       </c>
       <c r="Q29" s="13">
         <v>0</v>
@@ -2476,28 +2563,31 @@
       <c r="U29" s="13">
         <v>0</v>
       </c>
-      <c r="V29" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
+      <c r="V29" s="13">
+        <v>0</v>
+      </c>
+      <c r="W29" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" s="11">
         <v>2</v>
       </c>
-      <c r="B30" s="6">
-        <v>0</v>
-      </c>
-      <c r="C30" s="13">
+      <c r="C30" s="6">
         <v>0</v>
       </c>
       <c r="D30" s="13">
         <v>0</v>
       </c>
-      <c r="E30" s="1">
-        <v>1</v>
-      </c>
-      <c r="F30" s="13">
-        <v>0</v>
+      <c r="E30" s="13">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
       </c>
       <c r="G30" s="13">
         <v>0</v>
@@ -2526,11 +2616,11 @@
       <c r="O30" s="13">
         <v>0</v>
       </c>
-      <c r="P30" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q30" s="13">
-        <v>0</v>
+      <c r="P30" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>1</v>
       </c>
       <c r="R30" s="13">
         <v>0</v>
@@ -2544,18 +2634,21 @@
       <c r="U30" s="13">
         <v>0</v>
       </c>
-      <c r="V30" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="11">
+      <c r="V30" s="13">
+        <v>0</v>
+      </c>
+      <c r="W30" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" s="11">
         <v>2</v>
       </c>
-      <c r="B31" s="6">
-        <v>0</v>
-      </c>
-      <c r="C31" s="13">
+      <c r="C31" s="6">
         <v>0</v>
       </c>
       <c r="D31" s="13">
@@ -2564,11 +2657,11 @@
       <c r="E31" s="13">
         <v>0</v>
       </c>
-      <c r="F31" s="1">
-        <v>1</v>
-      </c>
-      <c r="G31" s="13">
-        <v>0</v>
+      <c r="F31" s="13">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
       </c>
       <c r="H31" s="13">
         <v>0</v>
@@ -2594,11 +2687,11 @@
       <c r="O31" s="13">
         <v>0</v>
       </c>
-      <c r="P31" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="13">
-        <v>0</v>
+      <c r="P31" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>1</v>
       </c>
       <c r="R31" s="13">
         <v>0</v>
@@ -2612,18 +2705,21 @@
       <c r="U31" s="13">
         <v>0</v>
       </c>
-      <c r="V31" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="11">
+      <c r="V31" s="13">
+        <v>0</v>
+      </c>
+      <c r="W31" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="11">
         <v>2</v>
       </c>
-      <c r="B32" s="6">
-        <v>0</v>
-      </c>
-      <c r="C32" s="13">
+      <c r="C32" s="6">
         <v>0</v>
       </c>
       <c r="D32" s="13">
@@ -2632,11 +2728,11 @@
       <c r="E32" s="13">
         <v>0</v>
       </c>
-      <c r="F32" s="1">
-        <v>1</v>
-      </c>
-      <c r="G32" s="13">
-        <v>0</v>
+      <c r="F32" s="13">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
       </c>
       <c r="H32" s="13">
         <v>0</v>
@@ -2665,11 +2761,11 @@
       <c r="P32" s="13">
         <v>0</v>
       </c>
-      <c r="Q32" s="1">
-        <v>1</v>
-      </c>
-      <c r="R32" s="13">
-        <v>0</v>
+      <c r="Q32" s="13">
+        <v>0</v>
+      </c>
+      <c r="R32" s="1">
+        <v>1</v>
       </c>
       <c r="S32" s="13">
         <v>0</v>
@@ -2680,18 +2776,21 @@
       <c r="U32" s="13">
         <v>0</v>
       </c>
-      <c r="V32" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A33" s="11">
+      <c r="V32" s="13">
+        <v>0</v>
+      </c>
+      <c r="W32" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="11">
         <v>2</v>
       </c>
-      <c r="B33" s="6">
-        <v>0</v>
-      </c>
-      <c r="C33" s="13">
+      <c r="C33" s="6">
         <v>0</v>
       </c>
       <c r="D33" s="13">
@@ -2703,11 +2802,11 @@
       <c r="F33" s="13">
         <v>0</v>
       </c>
-      <c r="G33" s="1">
-        <v>1</v>
-      </c>
-      <c r="H33" s="13">
-        <v>0</v>
+      <c r="G33" s="13">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1</v>
       </c>
       <c r="I33" s="13">
         <v>0</v>
@@ -2733,11 +2832,11 @@
       <c r="P33" s="13">
         <v>0</v>
       </c>
-      <c r="Q33" s="1">
-        <v>1</v>
-      </c>
-      <c r="R33" s="13">
-        <v>0</v>
+      <c r="Q33" s="13">
+        <v>0</v>
+      </c>
+      <c r="R33" s="1">
+        <v>1</v>
       </c>
       <c r="S33" s="13">
         <v>0</v>
@@ -2748,18 +2847,21 @@
       <c r="U33" s="13">
         <v>0</v>
       </c>
-      <c r="V33" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A34" s="11">
+      <c r="V33" s="13">
+        <v>0</v>
+      </c>
+      <c r="W33" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="11">
         <v>2</v>
       </c>
-      <c r="B34" s="6">
-        <v>0</v>
-      </c>
-      <c r="C34" s="13">
+      <c r="C34" s="6">
         <v>0</v>
       </c>
       <c r="D34" s="13">
@@ -2771,11 +2873,11 @@
       <c r="F34" s="13">
         <v>0</v>
       </c>
-      <c r="G34" s="1">
-        <v>1</v>
-      </c>
-      <c r="H34" s="13">
-        <v>0</v>
+      <c r="G34" s="13">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1</v>
       </c>
       <c r="I34" s="13">
         <v>0</v>
@@ -2804,11 +2906,11 @@
       <c r="Q34" s="13">
         <v>0</v>
       </c>
-      <c r="R34" s="1">
-        <v>1</v>
-      </c>
-      <c r="S34" s="13">
-        <v>0</v>
+      <c r="R34" s="13">
+        <v>0</v>
+      </c>
+      <c r="S34" s="1">
+        <v>1</v>
       </c>
       <c r="T34" s="13">
         <v>0</v>
@@ -2816,18 +2918,21 @@
       <c r="U34" s="13">
         <v>0</v>
       </c>
-      <c r="V34" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" s="11">
+      <c r="V34" s="13">
+        <v>0</v>
+      </c>
+      <c r="W34" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" s="11">
         <v>2</v>
       </c>
-      <c r="B35" s="6">
-        <v>0</v>
-      </c>
-      <c r="C35" s="13">
+      <c r="C35" s="6">
         <v>0</v>
       </c>
       <c r="D35" s="13">
@@ -2842,11 +2947,11 @@
       <c r="G35" s="13">
         <v>0</v>
       </c>
-      <c r="H35" s="1">
-        <v>1</v>
-      </c>
-      <c r="I35" s="13">
-        <v>0</v>
+      <c r="H35" s="13">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>1</v>
       </c>
       <c r="J35" s="13">
         <v>0</v>
@@ -2872,11 +2977,11 @@
       <c r="Q35" s="13">
         <v>0</v>
       </c>
-      <c r="R35" s="1">
-        <v>1</v>
-      </c>
-      <c r="S35" s="13">
-        <v>0</v>
+      <c r="R35" s="13">
+        <v>0</v>
+      </c>
+      <c r="S35" s="1">
+        <v>1</v>
       </c>
       <c r="T35" s="13">
         <v>0</v>
@@ -2884,18 +2989,21 @@
       <c r="U35" s="13">
         <v>0</v>
       </c>
-      <c r="V35" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A36" s="11">
+      <c r="V35" s="13">
+        <v>0</v>
+      </c>
+      <c r="W35" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" s="11">
         <v>2</v>
       </c>
-      <c r="B36" s="6">
-        <v>0</v>
-      </c>
-      <c r="C36" s="13">
+      <c r="C36" s="6">
         <v>0</v>
       </c>
       <c r="D36" s="13">
@@ -2910,11 +3018,11 @@
       <c r="G36" s="13">
         <v>0</v>
       </c>
-      <c r="H36" s="1">
-        <v>1</v>
-      </c>
-      <c r="I36" s="13">
-        <v>0</v>
+      <c r="H36" s="13">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>1</v>
       </c>
       <c r="J36" s="13">
         <v>0</v>
@@ -2943,27 +3051,30 @@
       <c r="R36" s="13">
         <v>0</v>
       </c>
-      <c r="S36" s="1">
-        <v>1</v>
-      </c>
-      <c r="T36" s="13">
-        <v>0</v>
+      <c r="S36" s="13">
+        <v>0</v>
+      </c>
+      <c r="T36" s="1">
+        <v>1</v>
       </c>
       <c r="U36" s="13">
         <v>0</v>
       </c>
-      <c r="V36" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A37" s="11">
+      <c r="V36" s="13">
+        <v>0</v>
+      </c>
+      <c r="W36" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="11">
         <v>2</v>
       </c>
-      <c r="B37" s="6">
-        <v>0</v>
-      </c>
-      <c r="C37" s="13">
+      <c r="C37" s="6">
         <v>0</v>
       </c>
       <c r="D37" s="13">
@@ -2981,11 +3092,11 @@
       <c r="H37" s="13">
         <v>0</v>
       </c>
-      <c r="I37" s="1">
-        <v>1</v>
-      </c>
-      <c r="J37" s="13">
-        <v>0</v>
+      <c r="I37" s="13">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1">
+        <v>1</v>
       </c>
       <c r="K37" s="13">
         <v>0</v>
@@ -3011,27 +3122,30 @@
       <c r="R37" s="13">
         <v>0</v>
       </c>
-      <c r="S37" s="1">
-        <v>1</v>
-      </c>
-      <c r="T37" s="13">
-        <v>0</v>
+      <c r="S37" s="13">
+        <v>0</v>
+      </c>
+      <c r="T37" s="1">
+        <v>1</v>
       </c>
       <c r="U37" s="13">
         <v>0</v>
       </c>
-      <c r="V37" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A38" s="11">
+      <c r="V37" s="13">
+        <v>0</v>
+      </c>
+      <c r="W37" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" s="11">
         <v>2</v>
       </c>
-      <c r="B38" s="6">
-        <v>0</v>
-      </c>
-      <c r="C38" s="13">
+      <c r="C38" s="6">
         <v>0</v>
       </c>
       <c r="D38" s="13">
@@ -3049,11 +3163,11 @@
       <c r="H38" s="13">
         <v>0</v>
       </c>
-      <c r="I38" s="1">
-        <v>1</v>
-      </c>
-      <c r="J38" s="13">
-        <v>0</v>
+      <c r="I38" s="13">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1">
+        <v>1</v>
       </c>
       <c r="K38" s="13">
         <v>0</v>
@@ -3082,24 +3196,27 @@
       <c r="S38" s="13">
         <v>0</v>
       </c>
-      <c r="T38" s="1">
-        <v>1</v>
-      </c>
-      <c r="U38" s="13">
-        <v>0</v>
-      </c>
-      <c r="V38" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A39" s="11">
+      <c r="T38" s="13">
+        <v>0</v>
+      </c>
+      <c r="U38" s="1">
+        <v>1</v>
+      </c>
+      <c r="V38" s="13">
+        <v>0</v>
+      </c>
+      <c r="W38" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" s="11">
         <v>2</v>
       </c>
-      <c r="B39" s="6">
-        <v>0</v>
-      </c>
-      <c r="C39" s="13">
+      <c r="C39" s="6">
         <v>0</v>
       </c>
       <c r="D39" s="13">
@@ -3120,11 +3237,11 @@
       <c r="I39" s="13">
         <v>0</v>
       </c>
-      <c r="J39" s="1">
-        <v>1</v>
-      </c>
-      <c r="K39" s="13">
-        <v>0</v>
+      <c r="J39" s="13">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <v>1</v>
       </c>
       <c r="L39" s="13">
         <v>0</v>
@@ -3150,24 +3267,27 @@
       <c r="S39" s="13">
         <v>0</v>
       </c>
-      <c r="T39" s="1">
-        <v>1</v>
-      </c>
-      <c r="U39" s="13">
-        <v>0</v>
-      </c>
-      <c r="V39" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A40" s="11">
+      <c r="T39" s="13">
+        <v>0</v>
+      </c>
+      <c r="U39" s="1">
+        <v>1</v>
+      </c>
+      <c r="V39" s="13">
+        <v>0</v>
+      </c>
+      <c r="W39" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" s="11">
         <v>2</v>
       </c>
-      <c r="B40" s="6">
-        <v>0</v>
-      </c>
-      <c r="C40" s="13">
+      <c r="C40" s="6">
         <v>0</v>
       </c>
       <c r="D40" s="13">
@@ -3188,11 +3308,11 @@
       <c r="I40" s="13">
         <v>0</v>
       </c>
-      <c r="J40" s="1">
-        <v>1</v>
-      </c>
-      <c r="K40" s="13">
-        <v>0</v>
+      <c r="J40" s="13">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
+        <v>1</v>
       </c>
       <c r="L40" s="13">
         <v>0</v>
@@ -3221,21 +3341,24 @@
       <c r="T40" s="13">
         <v>0</v>
       </c>
-      <c r="U40" s="1">
-        <v>1</v>
-      </c>
-      <c r="V40" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A41" s="11">
+      <c r="U40" s="13">
+        <v>0</v>
+      </c>
+      <c r="V40" s="1">
+        <v>1</v>
+      </c>
+      <c r="W40" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" s="11">
         <v>2</v>
       </c>
-      <c r="B41" s="6">
-        <v>0</v>
-      </c>
-      <c r="C41" s="13">
+      <c r="C41" s="6">
         <v>0</v>
       </c>
       <c r="D41" s="13">
@@ -3259,11 +3382,11 @@
       <c r="J41" s="13">
         <v>0</v>
       </c>
-      <c r="K41" s="1">
-        <v>1</v>
-      </c>
-      <c r="L41" s="13">
-        <v>0</v>
+      <c r="K41" s="13">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1">
+        <v>1</v>
       </c>
       <c r="M41" s="13">
         <v>0</v>
@@ -3289,21 +3412,24 @@
       <c r="T41" s="13">
         <v>0</v>
       </c>
-      <c r="U41" s="1">
-        <v>1</v>
-      </c>
-      <c r="V41" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A42" s="11">
+      <c r="U41" s="13">
+        <v>0</v>
+      </c>
+      <c r="V41" s="1">
+        <v>1</v>
+      </c>
+      <c r="W41" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" s="11">
         <v>2</v>
       </c>
-      <c r="B42" s="6">
-        <v>0</v>
-      </c>
-      <c r="C42" s="13">
+      <c r="C42" s="6">
         <v>0</v>
       </c>
       <c r="D42" s="13">
@@ -3327,11 +3453,11 @@
       <c r="J42" s="13">
         <v>0</v>
       </c>
-      <c r="K42" s="1">
-        <v>1</v>
-      </c>
-      <c r="L42" s="13">
-        <v>0</v>
+      <c r="K42" s="13">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1">
+        <v>1</v>
       </c>
       <c r="M42" s="13">
         <v>0</v>
@@ -3360,18 +3486,21 @@
       <c r="U42" s="13">
         <v>0</v>
       </c>
-      <c r="V42" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A43" s="11">
+      <c r="V42" s="13">
+        <v>0</v>
+      </c>
+      <c r="W42" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" s="11">
         <v>2</v>
       </c>
-      <c r="B43" s="6">
-        <v>0</v>
-      </c>
-      <c r="C43" s="13">
+      <c r="C43" s="6">
         <v>0</v>
       </c>
       <c r="D43" s="13">
@@ -3398,11 +3527,11 @@
       <c r="K43" s="13">
         <v>0</v>
       </c>
-      <c r="L43" s="1">
-        <v>1</v>
-      </c>
-      <c r="M43" s="13">
-        <v>0</v>
+      <c r="L43" s="13">
+        <v>0</v>
+      </c>
+      <c r="M43" s="1">
+        <v>1</v>
       </c>
       <c r="N43" s="13">
         <v>0</v>
@@ -3428,19 +3557,22 @@
       <c r="U43" s="13">
         <v>0</v>
       </c>
-      <c r="V43" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A44" s="11">
+      <c r="V43" s="13">
+        <v>0</v>
+      </c>
+      <c r="W43" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" s="11">
         <v>3</v>
       </c>
-      <c r="B44" s="3">
-        <v>1</v>
-      </c>
-      <c r="C44" s="4">
-        <v>0</v>
+      <c r="C44" s="3">
+        <v>1</v>
       </c>
       <c r="D44" s="4">
         <v>0</v>
@@ -3458,10 +3590,10 @@
         <v>0</v>
       </c>
       <c r="I44" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="4">
         <v>0</v>
@@ -3479,10 +3611,10 @@
         <v>0</v>
       </c>
       <c r="P44" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44" s="4">
         <v>0</v>
@@ -3496,22 +3628,25 @@
       <c r="U44" s="4">
         <v>0</v>
       </c>
-      <c r="V44" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A45" s="11">
+      <c r="V44" s="4">
+        <v>0</v>
+      </c>
+      <c r="W44" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" s="11">
         <v>3</v>
       </c>
-      <c r="B45" s="6">
-        <v>0</v>
-      </c>
-      <c r="C45" s="1">
-        <v>1</v>
-      </c>
-      <c r="D45" s="13">
-        <v>0</v>
+      <c r="C45" s="6">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1</v>
       </c>
       <c r="E45" s="13">
         <v>0</v>
@@ -3528,11 +3663,11 @@
       <c r="I45" s="13">
         <v>0</v>
       </c>
-      <c r="J45" s="1">
-        <v>1</v>
-      </c>
-      <c r="K45" s="13">
-        <v>0</v>
+      <c r="J45" s="13">
+        <v>0</v>
+      </c>
+      <c r="K45" s="1">
+        <v>1</v>
       </c>
       <c r="L45" s="13">
         <v>0</v>
@@ -3549,11 +3684,11 @@
       <c r="P45" s="13">
         <v>0</v>
       </c>
-      <c r="Q45" s="1">
-        <v>1</v>
-      </c>
-      <c r="R45" s="13">
-        <v>0</v>
+      <c r="Q45" s="13">
+        <v>0</v>
+      </c>
+      <c r="R45" s="1">
+        <v>1</v>
       </c>
       <c r="S45" s="13">
         <v>0</v>
@@ -3564,25 +3699,28 @@
       <c r="U45" s="13">
         <v>0</v>
       </c>
-      <c r="V45" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A46" s="11">
+      <c r="V45" s="13">
+        <v>0</v>
+      </c>
+      <c r="W45" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" s="11">
         <v>3</v>
       </c>
-      <c r="B46" s="6">
-        <v>0</v>
-      </c>
-      <c r="C46" s="13">
-        <v>0</v>
-      </c>
-      <c r="D46" s="1">
-        <v>1</v>
-      </c>
-      <c r="E46" s="13">
-        <v>0</v>
+      <c r="C46" s="6">
+        <v>0</v>
+      </c>
+      <c r="D46" s="13">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1</v>
       </c>
       <c r="F46" s="13">
         <v>0</v>
@@ -3599,11 +3737,11 @@
       <c r="J46" s="13">
         <v>0</v>
       </c>
-      <c r="K46" s="1">
-        <v>1</v>
-      </c>
-      <c r="L46" s="13">
-        <v>0</v>
+      <c r="K46" s="13">
+        <v>0</v>
+      </c>
+      <c r="L46" s="1">
+        <v>1</v>
       </c>
       <c r="M46" s="13">
         <v>0</v>
@@ -3620,11 +3758,11 @@
       <c r="Q46" s="13">
         <v>0</v>
       </c>
-      <c r="R46" s="1">
-        <v>1</v>
-      </c>
-      <c r="S46" s="13">
-        <v>0</v>
+      <c r="R46" s="13">
+        <v>0</v>
+      </c>
+      <c r="S46" s="1">
+        <v>1</v>
       </c>
       <c r="T46" s="13">
         <v>0</v>
@@ -3632,28 +3770,31 @@
       <c r="U46" s="13">
         <v>0</v>
       </c>
-      <c r="V46" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A47" s="11">
+      <c r="V46" s="13">
+        <v>0</v>
+      </c>
+      <c r="W46" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" s="11">
         <v>3</v>
       </c>
-      <c r="B47" s="6">
-        <v>0</v>
-      </c>
-      <c r="C47" s="13">
+      <c r="C47" s="6">
         <v>0</v>
       </c>
       <c r="D47" s="13">
         <v>0</v>
       </c>
-      <c r="E47" s="1">
-        <v>1</v>
-      </c>
-      <c r="F47" s="13">
-        <v>0</v>
+      <c r="E47" s="13">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1</v>
       </c>
       <c r="G47" s="13">
         <v>0</v>
@@ -3670,11 +3811,11 @@
       <c r="K47" s="13">
         <v>0</v>
       </c>
-      <c r="L47" s="1">
-        <v>1</v>
-      </c>
-      <c r="M47" s="13">
-        <v>0</v>
+      <c r="L47" s="13">
+        <v>0</v>
+      </c>
+      <c r="M47" s="1">
+        <v>1</v>
       </c>
       <c r="N47" s="13">
         <v>0</v>
@@ -3691,27 +3832,30 @@
       <c r="R47" s="13">
         <v>0</v>
       </c>
-      <c r="S47" s="1">
-        <v>1</v>
-      </c>
-      <c r="T47" s="13">
-        <v>0</v>
+      <c r="S47" s="13">
+        <v>0</v>
+      </c>
+      <c r="T47" s="1">
+        <v>1</v>
       </c>
       <c r="U47" s="13">
         <v>0</v>
       </c>
-      <c r="V47" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A48" s="11">
+      <c r="V47" s="13">
+        <v>0</v>
+      </c>
+      <c r="W47" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" s="11">
         <v>3</v>
       </c>
-      <c r="B48" s="6">
-        <v>0</v>
-      </c>
-      <c r="C48" s="13">
+      <c r="C48" s="6">
         <v>0</v>
       </c>
       <c r="D48" s="13">
@@ -3720,11 +3864,11 @@
       <c r="E48" s="13">
         <v>0</v>
       </c>
-      <c r="F48" s="1">
-        <v>1</v>
-      </c>
-      <c r="G48" s="13">
-        <v>0</v>
+      <c r="F48" s="13">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1</v>
       </c>
       <c r="H48" s="13">
         <v>0</v>
@@ -3741,11 +3885,11 @@
       <c r="L48" s="13">
         <v>0</v>
       </c>
-      <c r="M48" s="1">
-        <v>1</v>
-      </c>
-      <c r="N48" s="13">
-        <v>0</v>
+      <c r="M48" s="13">
+        <v>0</v>
+      </c>
+      <c r="N48" s="1">
+        <v>1</v>
       </c>
       <c r="O48" s="13">
         <v>0</v>
@@ -3762,24 +3906,27 @@
       <c r="S48" s="13">
         <v>0</v>
       </c>
-      <c r="T48" s="1">
-        <v>1</v>
-      </c>
-      <c r="U48" s="13">
-        <v>0</v>
-      </c>
-      <c r="V48" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A49" s="11">
+      <c r="T48" s="13">
+        <v>0</v>
+      </c>
+      <c r="U48" s="1">
+        <v>1</v>
+      </c>
+      <c r="V48" s="13">
+        <v>0</v>
+      </c>
+      <c r="W48" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" s="11">
         <v>3</v>
       </c>
-      <c r="B49" s="6">
-        <v>0</v>
-      </c>
-      <c r="C49" s="13">
+      <c r="C49" s="6">
         <v>0</v>
       </c>
       <c r="D49" s="13">
@@ -3792,10 +3939,10 @@
         <v>0</v>
       </c>
       <c r="G49" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" s="13">
         <v>0</v>
@@ -3812,11 +3959,11 @@
       <c r="M49" s="13">
         <v>0</v>
       </c>
-      <c r="N49" s="1">
-        <v>1</v>
-      </c>
-      <c r="O49" s="13">
-        <v>0</v>
+      <c r="N49" s="13">
+        <v>0</v>
+      </c>
+      <c r="O49" s="1">
+        <v>1</v>
       </c>
       <c r="P49" s="13">
         <v>0</v>
@@ -3833,21 +3980,24 @@
       <c r="T49" s="13">
         <v>0</v>
       </c>
-      <c r="U49" s="1">
-        <v>1</v>
-      </c>
-      <c r="V49" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A50" s="14">
+      <c r="U49" s="13">
+        <v>0</v>
+      </c>
+      <c r="V49" s="1">
+        <v>1</v>
+      </c>
+      <c r="W49" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" s="14">
         <v>3</v>
       </c>
-      <c r="B50" s="8">
-        <v>0</v>
-      </c>
-      <c r="C50" s="2">
+      <c r="C50" s="8">
         <v>0</v>
       </c>
       <c r="D50" s="2">
@@ -3863,10 +4013,10 @@
         <v>0</v>
       </c>
       <c r="H50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" s="2">
         <v>0</v>
@@ -3884,10 +4034,10 @@
         <v>0</v>
       </c>
       <c r="O50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50" s="2">
         <v>0</v>
@@ -3904,19 +4054,22 @@
       <c r="U50" s="2">
         <v>0</v>
       </c>
-      <c r="V50" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A51" s="12">
+      <c r="V50" s="2">
+        <v>0</v>
+      </c>
+      <c r="W50" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" s="12">
         <v>4</v>
       </c>
-      <c r="B51" s="3">
-        <v>1</v>
-      </c>
-      <c r="C51" s="4">
-        <v>0</v>
+      <c r="C51" s="3">
+        <v>1</v>
       </c>
       <c r="D51" s="4">
         <v>0</v>
@@ -3928,10 +4081,10 @@
         <v>0</v>
       </c>
       <c r="G51" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" s="4">
         <v>0</v>
@@ -3943,10 +4096,10 @@
         <v>0</v>
       </c>
       <c r="L51" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51" s="4">
         <v>0</v>
@@ -3958,10 +4111,10 @@
         <v>0</v>
       </c>
       <c r="Q51" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R51" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S51" s="4">
         <v>0</v>
@@ -3972,19 +4125,22 @@
       <c r="U51" s="4">
         <v>0</v>
       </c>
-      <c r="V51" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A52" s="11">
+      <c r="V51" s="4">
+        <v>0</v>
+      </c>
+      <c r="W51" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" s="11">
         <v>4</v>
       </c>
-      <c r="B52" s="6">
-        <v>1</v>
-      </c>
-      <c r="C52" s="13">
-        <v>0</v>
+      <c r="C52" s="6">
+        <v>1</v>
       </c>
       <c r="D52" s="13">
         <v>0</v>
@@ -3995,11 +4151,11 @@
       <c r="F52" s="13">
         <v>0</v>
       </c>
-      <c r="G52" s="1">
-        <v>1</v>
-      </c>
-      <c r="H52" s="13">
-        <v>0</v>
+      <c r="G52" s="13">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1">
+        <v>1</v>
       </c>
       <c r="I52" s="13">
         <v>0</v>
@@ -4010,11 +4166,11 @@
       <c r="K52" s="13">
         <v>0</v>
       </c>
-      <c r="L52" s="1">
-        <v>1</v>
-      </c>
-      <c r="M52" s="13">
-        <v>0</v>
+      <c r="L52" s="13">
+        <v>0</v>
+      </c>
+      <c r="M52" s="1">
+        <v>1</v>
       </c>
       <c r="N52" s="13">
         <v>0</v>
@@ -4028,11 +4184,11 @@
       <c r="Q52" s="13">
         <v>0</v>
       </c>
-      <c r="R52" s="1">
-        <v>1</v>
-      </c>
-      <c r="S52" s="13">
-        <v>0</v>
+      <c r="R52" s="13">
+        <v>0</v>
+      </c>
+      <c r="S52" s="1">
+        <v>1</v>
       </c>
       <c r="T52" s="13">
         <v>0</v>
@@ -4040,19 +4196,22 @@
       <c r="U52" s="13">
         <v>0</v>
       </c>
-      <c r="V52" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A53" s="11">
+      <c r="V52" s="13">
+        <v>0</v>
+      </c>
+      <c r="W52" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" s="11">
         <v>4</v>
       </c>
-      <c r="B53" s="6">
-        <v>1</v>
-      </c>
-      <c r="C53" s="13">
-        <v>0</v>
+      <c r="C53" s="6">
+        <v>1</v>
       </c>
       <c r="D53" s="13">
         <v>0</v>
@@ -4063,11 +4222,11 @@
       <c r="F53" s="13">
         <v>0</v>
       </c>
-      <c r="G53" s="1">
-        <v>1</v>
-      </c>
-      <c r="H53" s="13">
-        <v>0</v>
+      <c r="G53" s="13">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1">
+        <v>1</v>
       </c>
       <c r="I53" s="13">
         <v>0</v>
@@ -4081,11 +4240,11 @@
       <c r="L53" s="13">
         <v>0</v>
       </c>
-      <c r="M53" s="1">
-        <v>1</v>
-      </c>
-      <c r="N53" s="13">
-        <v>0</v>
+      <c r="M53" s="13">
+        <v>0</v>
+      </c>
+      <c r="N53" s="1">
+        <v>1</v>
       </c>
       <c r="O53" s="13">
         <v>0</v>
@@ -4096,11 +4255,11 @@
       <c r="Q53" s="13">
         <v>0</v>
       </c>
-      <c r="R53" s="1">
-        <v>1</v>
-      </c>
-      <c r="S53" s="13">
-        <v>0</v>
+      <c r="R53" s="13">
+        <v>0</v>
+      </c>
+      <c r="S53" s="1">
+        <v>1</v>
       </c>
       <c r="T53" s="13">
         <v>0</v>
@@ -4108,19 +4267,22 @@
       <c r="U53" s="13">
         <v>0</v>
       </c>
-      <c r="V53" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A54" s="11">
+      <c r="V53" s="13">
+        <v>0</v>
+      </c>
+      <c r="W53" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" s="11">
         <v>4</v>
       </c>
-      <c r="B54" s="6">
-        <v>1</v>
-      </c>
-      <c r="C54" s="13">
-        <v>0</v>
+      <c r="C54" s="6">
+        <v>1</v>
       </c>
       <c r="D54" s="13">
         <v>0</v>
@@ -4134,11 +4296,11 @@
       <c r="G54" s="13">
         <v>0</v>
       </c>
-      <c r="H54" s="1">
-        <v>1</v>
-      </c>
-      <c r="I54" s="13">
-        <v>0</v>
+      <c r="H54" s="13">
+        <v>0</v>
+      </c>
+      <c r="I54" s="1">
+        <v>1</v>
       </c>
       <c r="J54" s="13">
         <v>0</v>
@@ -4149,11 +4311,11 @@
       <c r="L54" s="13">
         <v>0</v>
       </c>
-      <c r="M54" s="1">
-        <v>1</v>
-      </c>
-      <c r="N54" s="13">
-        <v>0</v>
+      <c r="M54" s="13">
+        <v>0</v>
+      </c>
+      <c r="N54" s="1">
+        <v>1</v>
       </c>
       <c r="O54" s="13">
         <v>0</v>
@@ -4164,11 +4326,11 @@
       <c r="Q54" s="13">
         <v>0</v>
       </c>
-      <c r="R54" s="1">
-        <v>1</v>
-      </c>
-      <c r="S54" s="13">
-        <v>0</v>
+      <c r="R54" s="13">
+        <v>0</v>
+      </c>
+      <c r="S54" s="1">
+        <v>1</v>
       </c>
       <c r="T54" s="13">
         <v>0</v>
@@ -4176,22 +4338,25 @@
       <c r="U54" s="13">
         <v>0</v>
       </c>
-      <c r="V54" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A55" s="11">
+      <c r="V54" s="13">
+        <v>0</v>
+      </c>
+      <c r="W54" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" s="11">
         <v>4</v>
       </c>
-      <c r="B55" s="6">
-        <v>0</v>
-      </c>
-      <c r="C55" s="1">
-        <v>1</v>
-      </c>
-      <c r="D55" s="13">
-        <v>0</v>
+      <c r="C55" s="6">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1</v>
       </c>
       <c r="E55" s="13">
         <v>0</v>
@@ -4202,11 +4367,11 @@
       <c r="G55" s="13">
         <v>0</v>
       </c>
-      <c r="H55" s="1">
-        <v>1</v>
-      </c>
-      <c r="I55" s="13">
-        <v>0</v>
+      <c r="H55" s="13">
+        <v>0</v>
+      </c>
+      <c r="I55" s="1">
+        <v>1</v>
       </c>
       <c r="J55" s="13">
         <v>0</v>
@@ -4217,11 +4382,11 @@
       <c r="L55" s="13">
         <v>0</v>
       </c>
-      <c r="M55" s="1">
-        <v>1</v>
-      </c>
-      <c r="N55" s="13">
-        <v>0</v>
+      <c r="M55" s="13">
+        <v>0</v>
+      </c>
+      <c r="N55" s="1">
+        <v>1</v>
       </c>
       <c r="O55" s="13">
         <v>0</v>
@@ -4232,11 +4397,11 @@
       <c r="Q55" s="13">
         <v>0</v>
       </c>
-      <c r="R55" s="1">
-        <v>1</v>
-      </c>
-      <c r="S55" s="13">
-        <v>0</v>
+      <c r="R55" s="13">
+        <v>0</v>
+      </c>
+      <c r="S55" s="1">
+        <v>1</v>
       </c>
       <c r="T55" s="13">
         <v>0</v>
@@ -4244,22 +4409,25 @@
       <c r="U55" s="13">
         <v>0</v>
       </c>
-      <c r="V55" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A56" s="11">
+      <c r="V55" s="13">
+        <v>0</v>
+      </c>
+      <c r="W55" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" s="11">
         <v>4</v>
       </c>
-      <c r="B56" s="6">
-        <v>0</v>
-      </c>
-      <c r="C56" s="1">
-        <v>1</v>
-      </c>
-      <c r="D56" s="13">
-        <v>0</v>
+      <c r="C56" s="6">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1</v>
       </c>
       <c r="E56" s="13">
         <v>0</v>
@@ -4270,11 +4438,11 @@
       <c r="G56" s="13">
         <v>0</v>
       </c>
-      <c r="H56" s="1">
-        <v>1</v>
-      </c>
-      <c r="I56" s="13">
-        <v>0</v>
+      <c r="H56" s="13">
+        <v>0</v>
+      </c>
+      <c r="I56" s="1">
+        <v>1</v>
       </c>
       <c r="J56" s="13">
         <v>0</v>
@@ -4285,11 +4453,11 @@
       <c r="L56" s="13">
         <v>0</v>
       </c>
-      <c r="M56" s="1">
-        <v>1</v>
-      </c>
-      <c r="N56" s="13">
-        <v>0</v>
+      <c r="M56" s="13">
+        <v>0</v>
+      </c>
+      <c r="N56" s="1">
+        <v>1</v>
       </c>
       <c r="O56" s="13">
         <v>0</v>
@@ -4303,31 +4471,34 @@
       <c r="R56" s="13">
         <v>0</v>
       </c>
-      <c r="S56" s="1">
-        <v>1</v>
-      </c>
-      <c r="T56" s="13">
-        <v>0</v>
+      <c r="S56" s="13">
+        <v>0</v>
+      </c>
+      <c r="T56" s="1">
+        <v>1</v>
       </c>
       <c r="U56" s="13">
         <v>0</v>
       </c>
-      <c r="V56" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A57" s="11">
+      <c r="V56" s="13">
+        <v>0</v>
+      </c>
+      <c r="W56" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" s="11">
         <v>4</v>
       </c>
-      <c r="B57" s="6">
-        <v>0</v>
-      </c>
-      <c r="C57" s="1">
-        <v>1</v>
-      </c>
-      <c r="D57" s="13">
-        <v>0</v>
+      <c r="C57" s="6">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1</v>
       </c>
       <c r="E57" s="13">
         <v>0</v>
@@ -4338,11 +4509,11 @@
       <c r="G57" s="13">
         <v>0</v>
       </c>
-      <c r="H57" s="1">
-        <v>1</v>
-      </c>
-      <c r="I57" s="13">
-        <v>0</v>
+      <c r="H57" s="13">
+        <v>0</v>
+      </c>
+      <c r="I57" s="1">
+        <v>1</v>
       </c>
       <c r="J57" s="13">
         <v>0</v>
@@ -4356,11 +4527,11 @@
       <c r="M57" s="13">
         <v>0</v>
       </c>
-      <c r="N57" s="1">
-        <v>1</v>
-      </c>
-      <c r="O57" s="13">
-        <v>0</v>
+      <c r="N57" s="13">
+        <v>0</v>
+      </c>
+      <c r="O57" s="1">
+        <v>1</v>
       </c>
       <c r="P57" s="13">
         <v>0</v>
@@ -4371,31 +4542,34 @@
       <c r="R57" s="13">
         <v>0</v>
       </c>
-      <c r="S57" s="1">
-        <v>1</v>
-      </c>
-      <c r="T57" s="13">
-        <v>0</v>
+      <c r="S57" s="13">
+        <v>0</v>
+      </c>
+      <c r="T57" s="1">
+        <v>1</v>
       </c>
       <c r="U57" s="13">
         <v>0</v>
       </c>
-      <c r="V57" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A58" s="11">
+      <c r="V57" s="13">
+        <v>0</v>
+      </c>
+      <c r="W57" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" s="11">
         <v>4</v>
       </c>
-      <c r="B58" s="6">
-        <v>0</v>
-      </c>
-      <c r="C58" s="1">
-        <v>1</v>
-      </c>
-      <c r="D58" s="13">
-        <v>0</v>
+      <c r="C58" s="6">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1</v>
       </c>
       <c r="E58" s="13">
         <v>0</v>
@@ -4409,11 +4583,11 @@
       <c r="H58" s="13">
         <v>0</v>
       </c>
-      <c r="I58" s="1">
-        <v>1</v>
-      </c>
-      <c r="J58" s="13">
-        <v>0</v>
+      <c r="I58" s="13">
+        <v>0</v>
+      </c>
+      <c r="J58" s="1">
+        <v>1</v>
       </c>
       <c r="K58" s="13">
         <v>0</v>
@@ -4424,11 +4598,11 @@
       <c r="M58" s="13">
         <v>0</v>
       </c>
-      <c r="N58" s="1">
-        <v>1</v>
-      </c>
-      <c r="O58" s="13">
-        <v>0</v>
+      <c r="N58" s="13">
+        <v>0</v>
+      </c>
+      <c r="O58" s="1">
+        <v>1</v>
       </c>
       <c r="P58" s="13">
         <v>0</v>
@@ -4439,34 +4613,37 @@
       <c r="R58" s="13">
         <v>0</v>
       </c>
-      <c r="S58" s="1">
-        <v>1</v>
-      </c>
-      <c r="T58" s="13">
-        <v>0</v>
+      <c r="S58" s="13">
+        <v>0</v>
+      </c>
+      <c r="T58" s="1">
+        <v>1</v>
       </c>
       <c r="U58" s="13">
         <v>0</v>
       </c>
-      <c r="V58" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A59" s="11">
+      <c r="V58" s="13">
+        <v>0</v>
+      </c>
+      <c r="W58" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" s="11">
         <v>4</v>
       </c>
-      <c r="B59" s="6">
-        <v>0</v>
-      </c>
-      <c r="C59" s="13">
-        <v>0</v>
-      </c>
-      <c r="D59" s="1">
-        <v>1</v>
-      </c>
-      <c r="E59" s="13">
-        <v>0</v>
+      <c r="C59" s="6">
+        <v>0</v>
+      </c>
+      <c r="D59" s="13">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1">
+        <v>1</v>
       </c>
       <c r="F59" s="13">
         <v>0</v>
@@ -4477,11 +4654,11 @@
       <c r="H59" s="13">
         <v>0</v>
       </c>
-      <c r="I59" s="1">
-        <v>1</v>
-      </c>
-      <c r="J59" s="13">
-        <v>0</v>
+      <c r="I59" s="13">
+        <v>0</v>
+      </c>
+      <c r="J59" s="1">
+        <v>1</v>
       </c>
       <c r="K59" s="13">
         <v>0</v>
@@ -4492,11 +4669,11 @@
       <c r="M59" s="13">
         <v>0</v>
       </c>
-      <c r="N59" s="1">
-        <v>1</v>
-      </c>
-      <c r="O59" s="13">
-        <v>0</v>
+      <c r="N59" s="13">
+        <v>0</v>
+      </c>
+      <c r="O59" s="1">
+        <v>1</v>
       </c>
       <c r="P59" s="13">
         <v>0</v>
@@ -4507,34 +4684,37 @@
       <c r="R59" s="13">
         <v>0</v>
       </c>
-      <c r="S59" s="1">
-        <v>1</v>
-      </c>
-      <c r="T59" s="13">
-        <v>0</v>
+      <c r="S59" s="13">
+        <v>0</v>
+      </c>
+      <c r="T59" s="1">
+        <v>1</v>
       </c>
       <c r="U59" s="13">
         <v>0</v>
       </c>
-      <c r="V59" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A60" s="11">
+      <c r="V59" s="13">
+        <v>0</v>
+      </c>
+      <c r="W59" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" s="11">
         <v>4</v>
       </c>
-      <c r="B60" s="6">
-        <v>0</v>
-      </c>
-      <c r="C60" s="13">
-        <v>0</v>
-      </c>
-      <c r="D60" s="1">
-        <v>1</v>
-      </c>
-      <c r="E60" s="13">
-        <v>0</v>
+      <c r="C60" s="6">
+        <v>0</v>
+      </c>
+      <c r="D60" s="13">
+        <v>0</v>
+      </c>
+      <c r="E60" s="1">
+        <v>1</v>
       </c>
       <c r="F60" s="13">
         <v>0</v>
@@ -4545,11 +4725,11 @@
       <c r="H60" s="13">
         <v>0</v>
       </c>
-      <c r="I60" s="1">
-        <v>1</v>
-      </c>
-      <c r="J60" s="13">
-        <v>0</v>
+      <c r="I60" s="13">
+        <v>0</v>
+      </c>
+      <c r="J60" s="1">
+        <v>1</v>
       </c>
       <c r="K60" s="13">
         <v>0</v>
@@ -4560,11 +4740,11 @@
       <c r="M60" s="13">
         <v>0</v>
       </c>
-      <c r="N60" s="1">
-        <v>1</v>
-      </c>
-      <c r="O60" s="13">
-        <v>0</v>
+      <c r="N60" s="13">
+        <v>0</v>
+      </c>
+      <c r="O60" s="1">
+        <v>1</v>
       </c>
       <c r="P60" s="13">
         <v>0</v>
@@ -4578,31 +4758,34 @@
       <c r="S60" s="13">
         <v>0</v>
       </c>
-      <c r="T60" s="1">
-        <v>1</v>
-      </c>
-      <c r="U60" s="13">
-        <v>0</v>
-      </c>
-      <c r="V60" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A61" s="11">
+      <c r="T60" s="13">
+        <v>0</v>
+      </c>
+      <c r="U60" s="1">
+        <v>1</v>
+      </c>
+      <c r="V60" s="13">
+        <v>0</v>
+      </c>
+      <c r="W60" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" s="11">
         <v>4</v>
       </c>
-      <c r="B61" s="6">
-        <v>0</v>
-      </c>
-      <c r="C61" s="13">
-        <v>0</v>
-      </c>
-      <c r="D61" s="1">
-        <v>1</v>
-      </c>
-      <c r="E61" s="13">
-        <v>0</v>
+      <c r="C61" s="6">
+        <v>0</v>
+      </c>
+      <c r="D61" s="13">
+        <v>0</v>
+      </c>
+      <c r="E61" s="1">
+        <v>1</v>
       </c>
       <c r="F61" s="13">
         <v>0</v>
@@ -4613,11 +4796,11 @@
       <c r="H61" s="13">
         <v>0</v>
       </c>
-      <c r="I61" s="1">
-        <v>1</v>
-      </c>
-      <c r="J61" s="13">
-        <v>0</v>
+      <c r="I61" s="13">
+        <v>0</v>
+      </c>
+      <c r="J61" s="1">
+        <v>1</v>
       </c>
       <c r="K61" s="13">
         <v>0</v>
@@ -4631,11 +4814,11 @@
       <c r="N61" s="13">
         <v>0</v>
       </c>
-      <c r="O61" s="1">
-        <v>1</v>
-      </c>
-      <c r="P61" s="13">
-        <v>0</v>
+      <c r="O61" s="13">
+        <v>0</v>
+      </c>
+      <c r="P61" s="1">
+        <v>1</v>
       </c>
       <c r="Q61" s="13">
         <v>0</v>
@@ -4646,31 +4829,34 @@
       <c r="S61" s="13">
         <v>0</v>
       </c>
-      <c r="T61" s="1">
-        <v>1</v>
-      </c>
-      <c r="U61" s="13">
-        <v>0</v>
-      </c>
-      <c r="V61" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A62" s="11">
+      <c r="T61" s="13">
+        <v>0</v>
+      </c>
+      <c r="U61" s="1">
+        <v>1</v>
+      </c>
+      <c r="V61" s="13">
+        <v>0</v>
+      </c>
+      <c r="W61" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" s="11">
         <v>4</v>
       </c>
-      <c r="B62" s="6">
-        <v>0</v>
-      </c>
-      <c r="C62" s="13">
-        <v>0</v>
-      </c>
-      <c r="D62" s="1">
-        <v>1</v>
-      </c>
-      <c r="E62" s="13">
-        <v>0</v>
+      <c r="C62" s="6">
+        <v>0</v>
+      </c>
+      <c r="D62" s="13">
+        <v>0</v>
+      </c>
+      <c r="E62" s="1">
+        <v>1</v>
       </c>
       <c r="F62" s="13">
         <v>0</v>
@@ -4684,11 +4870,11 @@
       <c r="I62" s="13">
         <v>0</v>
       </c>
-      <c r="J62" s="1">
-        <v>1</v>
-      </c>
-      <c r="K62" s="13">
-        <v>0</v>
+      <c r="J62" s="13">
+        <v>0</v>
+      </c>
+      <c r="K62" s="1">
+        <v>1</v>
       </c>
       <c r="L62" s="13">
         <v>0</v>
@@ -4699,11 +4885,11 @@
       <c r="N62" s="13">
         <v>0</v>
       </c>
-      <c r="O62" s="1">
-        <v>1</v>
-      </c>
-      <c r="P62" s="13">
-        <v>0</v>
+      <c r="O62" s="13">
+        <v>0</v>
+      </c>
+      <c r="P62" s="1">
+        <v>1</v>
       </c>
       <c r="Q62" s="13">
         <v>0</v>
@@ -4714,34 +4900,37 @@
       <c r="S62" s="13">
         <v>0</v>
       </c>
-      <c r="T62" s="1">
-        <v>1</v>
-      </c>
-      <c r="U62" s="13">
-        <v>0</v>
-      </c>
-      <c r="V62" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A63" s="11">
+      <c r="T62" s="13">
+        <v>0</v>
+      </c>
+      <c r="U62" s="1">
+        <v>1</v>
+      </c>
+      <c r="V62" s="13">
+        <v>0</v>
+      </c>
+      <c r="W62" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" s="11">
         <v>4</v>
       </c>
-      <c r="B63" s="6">
-        <v>0</v>
-      </c>
-      <c r="C63" s="13">
+      <c r="C63" s="6">
         <v>0</v>
       </c>
       <c r="D63" s="13">
         <v>0</v>
       </c>
-      <c r="E63" s="1">
-        <v>1</v>
-      </c>
-      <c r="F63" s="13">
-        <v>0</v>
+      <c r="E63" s="13">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1">
+        <v>1</v>
       </c>
       <c r="G63" s="13">
         <v>0</v>
@@ -4752,11 +4941,11 @@
       <c r="I63" s="13">
         <v>0</v>
       </c>
-      <c r="J63" s="1">
-        <v>1</v>
-      </c>
-      <c r="K63" s="13">
-        <v>0</v>
+      <c r="J63" s="13">
+        <v>0</v>
+      </c>
+      <c r="K63" s="1">
+        <v>1</v>
       </c>
       <c r="L63" s="13">
         <v>0</v>
@@ -4767,11 +4956,11 @@
       <c r="N63" s="13">
         <v>0</v>
       </c>
-      <c r="O63" s="1">
-        <v>1</v>
-      </c>
-      <c r="P63" s="13">
-        <v>0</v>
+      <c r="O63" s="13">
+        <v>0</v>
+      </c>
+      <c r="P63" s="1">
+        <v>1</v>
       </c>
       <c r="Q63" s="13">
         <v>0</v>
@@ -4782,34 +4971,37 @@
       <c r="S63" s="13">
         <v>0</v>
       </c>
-      <c r="T63" s="1">
-        <v>1</v>
-      </c>
-      <c r="U63" s="13">
-        <v>0</v>
-      </c>
-      <c r="V63" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A64" s="11">
+      <c r="T63" s="13">
+        <v>0</v>
+      </c>
+      <c r="U63" s="1">
+        <v>1</v>
+      </c>
+      <c r="V63" s="13">
+        <v>0</v>
+      </c>
+      <c r="W63" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" s="11">
         <v>4</v>
       </c>
-      <c r="B64" s="6">
-        <v>0</v>
-      </c>
-      <c r="C64" s="13">
+      <c r="C64" s="6">
         <v>0</v>
       </c>
       <c r="D64" s="13">
         <v>0</v>
       </c>
-      <c r="E64" s="1">
-        <v>1</v>
-      </c>
-      <c r="F64" s="13">
-        <v>0</v>
+      <c r="E64" s="13">
+        <v>0</v>
+      </c>
+      <c r="F64" s="1">
+        <v>1</v>
       </c>
       <c r="G64" s="13">
         <v>0</v>
@@ -4820,11 +5012,11 @@
       <c r="I64" s="13">
         <v>0</v>
       </c>
-      <c r="J64" s="1">
-        <v>1</v>
-      </c>
-      <c r="K64" s="13">
-        <v>0</v>
+      <c r="J64" s="13">
+        <v>0</v>
+      </c>
+      <c r="K64" s="1">
+        <v>1</v>
       </c>
       <c r="L64" s="13">
         <v>0</v>
@@ -4835,11 +5027,11 @@
       <c r="N64" s="13">
         <v>0</v>
       </c>
-      <c r="O64" s="1">
-        <v>1</v>
-      </c>
-      <c r="P64" s="13">
-        <v>0</v>
+      <c r="O64" s="13">
+        <v>0</v>
+      </c>
+      <c r="P64" s="1">
+        <v>1</v>
       </c>
       <c r="Q64" s="13">
         <v>0</v>
@@ -4853,31 +5045,34 @@
       <c r="T64" s="13">
         <v>0</v>
       </c>
-      <c r="U64" s="1">
-        <v>1</v>
-      </c>
-      <c r="V64" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A65" s="11">
+      <c r="U64" s="13">
+        <v>0</v>
+      </c>
+      <c r="V64" s="1">
+        <v>1</v>
+      </c>
+      <c r="W64" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" s="11">
         <v>4</v>
       </c>
-      <c r="B65" s="6">
-        <v>0</v>
-      </c>
-      <c r="C65" s="13">
+      <c r="C65" s="6">
         <v>0</v>
       </c>
       <c r="D65" s="13">
         <v>0</v>
       </c>
-      <c r="E65" s="1">
-        <v>1</v>
-      </c>
-      <c r="F65" s="13">
-        <v>0</v>
+      <c r="E65" s="13">
+        <v>0</v>
+      </c>
+      <c r="F65" s="1">
+        <v>1</v>
       </c>
       <c r="G65" s="13">
         <v>0</v>
@@ -4888,11 +5083,11 @@
       <c r="I65" s="13">
         <v>0</v>
       </c>
-      <c r="J65" s="1">
-        <v>1</v>
-      </c>
-      <c r="K65" s="13">
-        <v>0</v>
+      <c r="J65" s="13">
+        <v>0</v>
+      </c>
+      <c r="K65" s="1">
+        <v>1</v>
       </c>
       <c r="L65" s="13">
         <v>0</v>
@@ -4906,11 +5101,11 @@
       <c r="O65" s="13">
         <v>0</v>
       </c>
-      <c r="P65" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q65" s="13">
-        <v>0</v>
+      <c r="P65" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="1">
+        <v>1</v>
       </c>
       <c r="R65" s="13">
         <v>0</v>
@@ -4921,31 +5116,34 @@
       <c r="T65" s="13">
         <v>0</v>
       </c>
-      <c r="U65" s="1">
-        <v>1</v>
-      </c>
-      <c r="V65" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A66" s="11">
+      <c r="U65" s="13">
+        <v>0</v>
+      </c>
+      <c r="V65" s="1">
+        <v>1</v>
+      </c>
+      <c r="W65" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" s="11">
         <v>4</v>
       </c>
-      <c r="B66" s="6">
-        <v>0</v>
-      </c>
-      <c r="C66" s="13">
+      <c r="C66" s="6">
         <v>0</v>
       </c>
       <c r="D66" s="13">
         <v>0</v>
       </c>
-      <c r="E66" s="1">
-        <v>1</v>
-      </c>
-      <c r="F66" s="13">
-        <v>0</v>
+      <c r="E66" s="13">
+        <v>0</v>
+      </c>
+      <c r="F66" s="1">
+        <v>1</v>
       </c>
       <c r="G66" s="13">
         <v>0</v>
@@ -4959,11 +5157,11 @@
       <c r="J66" s="13">
         <v>0</v>
       </c>
-      <c r="K66" s="1">
-        <v>1</v>
-      </c>
-      <c r="L66" s="13">
-        <v>0</v>
+      <c r="K66" s="13">
+        <v>0</v>
+      </c>
+      <c r="L66" s="1">
+        <v>1</v>
       </c>
       <c r="M66" s="13">
         <v>0</v>
@@ -4974,11 +5172,11 @@
       <c r="O66" s="13">
         <v>0</v>
       </c>
-      <c r="P66" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q66" s="13">
-        <v>0</v>
+      <c r="P66" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="1">
+        <v>1</v>
       </c>
       <c r="R66" s="13">
         <v>0</v>
@@ -4989,21 +5187,24 @@
       <c r="T66" s="13">
         <v>0</v>
       </c>
-      <c r="U66" s="1">
-        <v>1</v>
-      </c>
-      <c r="V66" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A67" s="11">
+      <c r="U66" s="13">
+        <v>0</v>
+      </c>
+      <c r="V66" s="1">
+        <v>1</v>
+      </c>
+      <c r="W66" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" s="11">
         <v>4</v>
       </c>
-      <c r="B67" s="6">
-        <v>0</v>
-      </c>
-      <c r="C67" s="13">
+      <c r="C67" s="6">
         <v>0</v>
       </c>
       <c r="D67" s="13">
@@ -5012,11 +5213,11 @@
       <c r="E67" s="13">
         <v>0</v>
       </c>
-      <c r="F67" s="1">
-        <v>1</v>
-      </c>
-      <c r="G67" s="13">
-        <v>0</v>
+      <c r="F67" s="13">
+        <v>0</v>
+      </c>
+      <c r="G67" s="1">
+        <v>1</v>
       </c>
       <c r="H67" s="13">
         <v>0</v>
@@ -5027,11 +5228,11 @@
       <c r="J67" s="13">
         <v>0</v>
       </c>
-      <c r="K67" s="1">
-        <v>1</v>
-      </c>
-      <c r="L67" s="13">
-        <v>0</v>
+      <c r="K67" s="13">
+        <v>0</v>
+      </c>
+      <c r="L67" s="1">
+        <v>1</v>
       </c>
       <c r="M67" s="13">
         <v>0</v>
@@ -5042,11 +5243,11 @@
       <c r="O67" s="13">
         <v>0</v>
       </c>
-      <c r="P67" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q67" s="13">
-        <v>0</v>
+      <c r="P67" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="1">
+        <v>1</v>
       </c>
       <c r="R67" s="13">
         <v>0</v>
@@ -5057,21 +5258,24 @@
       <c r="T67" s="13">
         <v>0</v>
       </c>
-      <c r="U67" s="1">
-        <v>1</v>
-      </c>
-      <c r="V67" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A68" s="11">
+      <c r="U67" s="13">
+        <v>0</v>
+      </c>
+      <c r="V67" s="1">
+        <v>1</v>
+      </c>
+      <c r="W67" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" s="11">
         <v>4</v>
       </c>
-      <c r="B68" s="6">
-        <v>0</v>
-      </c>
-      <c r="C68" s="13">
+      <c r="C68" s="6">
         <v>0</v>
       </c>
       <c r="D68" s="13">
@@ -5080,11 +5284,11 @@
       <c r="E68" s="13">
         <v>0</v>
       </c>
-      <c r="F68" s="1">
-        <v>1</v>
-      </c>
-      <c r="G68" s="13">
-        <v>0</v>
+      <c r="F68" s="13">
+        <v>0</v>
+      </c>
+      <c r="G68" s="1">
+        <v>1</v>
       </c>
       <c r="H68" s="13">
         <v>0</v>
@@ -5095,11 +5299,11 @@
       <c r="J68" s="13">
         <v>0</v>
       </c>
-      <c r="K68" s="1">
-        <v>1</v>
-      </c>
-      <c r="L68" s="13">
-        <v>0</v>
+      <c r="K68" s="13">
+        <v>0</v>
+      </c>
+      <c r="L68" s="1">
+        <v>1</v>
       </c>
       <c r="M68" s="13">
         <v>0</v>
@@ -5110,11 +5314,11 @@
       <c r="O68" s="13">
         <v>0</v>
       </c>
-      <c r="P68" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q68" s="13">
-        <v>0</v>
+      <c r="P68" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="1">
+        <v>1</v>
       </c>
       <c r="R68" s="13">
         <v>0</v>
@@ -5128,18 +5332,21 @@
       <c r="U68" s="13">
         <v>0</v>
       </c>
-      <c r="V68" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A69" s="11">
+      <c r="V68" s="13">
+        <v>0</v>
+      </c>
+      <c r="W68" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" s="11">
         <v>4</v>
       </c>
-      <c r="B69" s="6">
-        <v>0</v>
-      </c>
-      <c r="C69" s="13">
+      <c r="C69" s="6">
         <v>0</v>
       </c>
       <c r="D69" s="13">
@@ -5148,11 +5355,11 @@
       <c r="E69" s="13">
         <v>0</v>
       </c>
-      <c r="F69" s="1">
-        <v>1</v>
-      </c>
-      <c r="G69" s="13">
-        <v>0</v>
+      <c r="F69" s="13">
+        <v>0</v>
+      </c>
+      <c r="G69" s="1">
+        <v>1</v>
       </c>
       <c r="H69" s="13">
         <v>0</v>
@@ -5163,11 +5370,11 @@
       <c r="J69" s="13">
         <v>0</v>
       </c>
-      <c r="K69" s="1">
-        <v>1</v>
-      </c>
-      <c r="L69" s="13">
-        <v>0</v>
+      <c r="K69" s="13">
+        <v>0</v>
+      </c>
+      <c r="L69" s="1">
+        <v>1</v>
       </c>
       <c r="M69" s="13">
         <v>0</v>
@@ -5181,11 +5388,11 @@
       <c r="P69" s="13">
         <v>0</v>
       </c>
-      <c r="Q69" s="1">
-        <v>1</v>
-      </c>
-      <c r="R69" s="13">
-        <v>0</v>
+      <c r="Q69" s="13">
+        <v>0</v>
+      </c>
+      <c r="R69" s="1">
+        <v>1</v>
       </c>
       <c r="S69" s="13">
         <v>0</v>
@@ -5196,18 +5403,21 @@
       <c r="U69" s="13">
         <v>0</v>
       </c>
-      <c r="V69" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A70" s="11">
+      <c r="V69" s="13">
+        <v>0</v>
+      </c>
+      <c r="W69" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" s="11">
         <v>4</v>
       </c>
-      <c r="B70" s="6">
-        <v>0</v>
-      </c>
-      <c r="C70" s="13">
+      <c r="C70" s="6">
         <v>0</v>
       </c>
       <c r="D70" s="13">
@@ -5216,11 +5426,11 @@
       <c r="E70" s="13">
         <v>0</v>
       </c>
-      <c r="F70" s="1">
-        <v>1</v>
-      </c>
-      <c r="G70" s="13">
-        <v>0</v>
+      <c r="F70" s="13">
+        <v>0</v>
+      </c>
+      <c r="G70" s="1">
+        <v>1</v>
       </c>
       <c r="H70" s="13">
         <v>0</v>
@@ -5234,11 +5444,11 @@
       <c r="K70" s="13">
         <v>0</v>
       </c>
-      <c r="L70" s="1">
-        <v>1</v>
-      </c>
-      <c r="M70" s="13">
-        <v>0</v>
+      <c r="L70" s="13">
+        <v>0</v>
+      </c>
+      <c r="M70" s="1">
+        <v>1</v>
       </c>
       <c r="N70" s="13">
         <v>0</v>
@@ -5249,11 +5459,11 @@
       <c r="P70" s="13">
         <v>0</v>
       </c>
-      <c r="Q70" s="1">
-        <v>1</v>
-      </c>
-      <c r="R70" s="13">
-        <v>0</v>
+      <c r="Q70" s="13">
+        <v>0</v>
+      </c>
+      <c r="R70" s="1">
+        <v>1</v>
       </c>
       <c r="S70" s="13">
         <v>0</v>
@@ -5264,18 +5474,21 @@
       <c r="U70" s="13">
         <v>0</v>
       </c>
-      <c r="V70" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A71" s="11">
+      <c r="V70" s="13">
+        <v>0</v>
+      </c>
+      <c r="W70" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" s="11">
         <v>4</v>
       </c>
-      <c r="B71" s="8">
-        <v>0</v>
-      </c>
-      <c r="C71" s="2">
+      <c r="C71" s="8">
         <v>0</v>
       </c>
       <c r="D71" s="2">
@@ -5288,10 +5501,10 @@
         <v>0</v>
       </c>
       <c r="G71" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" s="2">
         <v>0</v>
@@ -5303,10 +5516,10 @@
         <v>0</v>
       </c>
       <c r="L71" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M71" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N71" s="2">
         <v>0</v>
@@ -5318,10 +5531,10 @@
         <v>0</v>
       </c>
       <c r="Q71" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R71" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S71" s="2">
         <v>0</v>
@@ -5332,7 +5545,10 @@
       <c r="U71" s="2">
         <v>0</v>
       </c>
-      <c r="V71" s="9">
+      <c r="V71" s="2">
+        <v>0</v>
+      </c>
+      <c r="W71" s="9">
         <v>1</v>
       </c>
     </row>
